--- a/data/trans_orig/P33B3_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33B3_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>52076</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>38875</v>
+        <v>39248</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>67484</v>
+        <v>67711</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07551364850735612</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05637111113636416</v>
+        <v>0.05691191773861114</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09785507278102108</v>
+        <v>0.09818475051187689</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>130</v>
@@ -762,19 +762,19 @@
         <v>76419</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>63711</v>
+        <v>63987</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>89844</v>
+        <v>90076</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1042944715972971</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08695069777866894</v>
+        <v>0.08732729515298385</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1226165133500592</v>
+        <v>0.1229339798318592</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>189</v>
@@ -783,19 +783,19 @@
         <v>128495</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>110815</v>
+        <v>111750</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>148402</v>
+        <v>150625</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09034005784949184</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07790967441252501</v>
+        <v>0.07856701915409187</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1043357471140672</v>
+        <v>0.1058985388120288</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>49381</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>38144</v>
+        <v>37433</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>67088</v>
+        <v>68055</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.0716050749473766</v>
+        <v>0.07160507494737658</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05531050684881703</v>
+        <v>0.05428018768454999</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09728077751766678</v>
+        <v>0.09868355570900973</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>169</v>
@@ -833,19 +833,19 @@
         <v>90901</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>76841</v>
+        <v>76452</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>106585</v>
+        <v>106108</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.1240587428750198</v>
+        <v>0.1240587428750197</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1048708079248302</v>
+        <v>0.1043397908686223</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1454645216544133</v>
+        <v>0.1448140627838503</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>227</v>
@@ -854,19 +854,19 @@
         <v>140281</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>122490</v>
+        <v>122614</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>165025</v>
+        <v>163709</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09862652425622222</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08611793028779674</v>
+        <v>0.08620557498477559</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1160225115577308</v>
+        <v>0.1150975552506692</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>128414</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>109524</v>
+        <v>109787</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>150590</v>
+        <v>149541</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.186208338838158</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1588162055329581</v>
+        <v>0.1591968937893639</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2183645017393332</v>
+        <v>0.2168428611938473</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>358</v>
@@ -904,19 +904,19 @@
         <v>180372</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>161726</v>
+        <v>163457</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>198537</v>
+        <v>200407</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.2461674831851101</v>
+        <v>0.24616748318511</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2207193246627584</v>
+        <v>0.2230814132632578</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2709575302045916</v>
+        <v>0.2735101172682461</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>524</v>
@@ -925,19 +925,19 @@
         <v>308787</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>284227</v>
+        <v>282813</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>339711</v>
+        <v>339147</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2170962260648029</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.199828810093121</v>
+        <v>0.1988347790959437</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2388380219528148</v>
+        <v>0.2384413695508914</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>459756</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>434063</v>
+        <v>434082</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>487642</v>
+        <v>484854</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6666729377071093</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6294163083874907</v>
+        <v>0.6294441114503605</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7071085626377726</v>
+        <v>0.7030654676414642</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>581</v>
@@ -975,19 +975,19 @@
         <v>385030</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>363637</v>
+        <v>362638</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>407414</v>
+        <v>408226</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5254793023425731</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4962822187811293</v>
+        <v>0.4949188559999122</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.556028002703608</v>
+        <v>0.5571359878054177</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1027</v>
@@ -996,19 +996,19 @@
         <v>844787</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>809616</v>
+        <v>809540</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>878533</v>
+        <v>879139</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.5939371918294831</v>
+        <v>0.593937191829483</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5692101355937802</v>
+        <v>0.5691568418355715</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.61766305921666</v>
+        <v>0.6180891883164393</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>88354</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>69647</v>
+        <v>72669</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>107703</v>
+        <v>108836</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.08431322337714126</v>
+        <v>0.08431322337714124</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06646149621335676</v>
+        <v>0.06934540179974895</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1027773553715631</v>
+        <v>0.1038578907364257</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>193</v>
@@ -1121,19 +1121,19 @@
         <v>124260</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>107995</v>
+        <v>107114</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>143433</v>
+        <v>142309</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.116039884299085</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1008506732041834</v>
+        <v>0.100028008507962</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1339446098132706</v>
+        <v>0.1328954266350111</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>290</v>
@@ -1142,19 +1142,19 @@
         <v>212614</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>189621</v>
+        <v>186391</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>241840</v>
+        <v>240981</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.100348072386572</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08949604441071363</v>
+        <v>0.08797155886758458</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1141416471452067</v>
+        <v>0.1137362043244301</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>74576</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>59251</v>
+        <v>58220</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>95851</v>
+        <v>96579</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.07116485544259099</v>
+        <v>0.07116485544259098</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05654121076747529</v>
+        <v>0.05555737209644649</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09146674844346731</v>
+        <v>0.09216197353985325</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>178</v>
@@ -1192,19 +1192,19 @@
         <v>112667</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>97602</v>
+        <v>97840</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>132213</v>
+        <v>130563</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1052137442977125</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09114513805123295</v>
+        <v>0.09136797146133813</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.123467303658098</v>
+        <v>0.1219264429990886</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>252</v>
@@ -1213,19 +1213,19 @@
         <v>187243</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>160126</v>
+        <v>161459</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>211686</v>
+        <v>212932</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.08837337269166418</v>
+        <v>0.08837337269166419</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07557511898589443</v>
+        <v>0.07620427284676103</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09990985686812481</v>
+        <v>0.1004979585072577</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>157707</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>135305</v>
+        <v>135900</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>185549</v>
+        <v>182448</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1504937604733461</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1291168546527062</v>
+        <v>0.1296840916556128</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1770627813365536</v>
+        <v>0.174103284177277</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>411</v>
@@ -1263,19 +1263,19 @@
         <v>244017</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>222103</v>
+        <v>222024</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>266109</v>
+        <v>266454</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.227874810213813</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.207410361830598</v>
+        <v>0.2073365499450043</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2485049918473283</v>
+        <v>0.2488277444730944</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>582</v>
@@ -1284,19 +1284,19 @@
         <v>401724</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>369590</v>
+        <v>364311</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>433004</v>
+        <v>434100</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.1896026175898366</v>
+        <v>0.1896026175898367</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1744361844498282</v>
+        <v>0.1719450036314238</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2043662647287753</v>
+        <v>0.2048833387022981</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>727292</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>696788</v>
+        <v>691395</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>762595</v>
+        <v>758065</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6940281607069215</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6649187517722031</v>
+        <v>0.6597723549872385</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7277159326546018</v>
+        <v>0.723393163954032</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>734</v>
@@ -1334,19 +1334,19 @@
         <v>589894</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>562970</v>
+        <v>560875</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>617860</v>
+        <v>616189</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5508715611893895</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5257282736929141</v>
+        <v>0.5237724744157048</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5769870304048182</v>
+        <v>0.5754269693683818</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1355</v>
@@ -1355,19 +1355,19 @@
         <v>1317186</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1276338</v>
+        <v>1274028</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1361650</v>
+        <v>1360126</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.6216759373319269</v>
+        <v>0.6216759373319272</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6023963682103773</v>
+        <v>0.601306305405708</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6426615281145653</v>
+        <v>0.641942418464357</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>50331</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>36587</v>
+        <v>38282</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>67159</v>
+        <v>67292</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.06267269603216979</v>
+        <v>0.06267269603216981</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04555919260442645</v>
+        <v>0.04766954351506247</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08362709131737107</v>
+        <v>0.08379283608252447</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>91</v>
@@ -1480,19 +1480,19 @@
         <v>65337</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>52815</v>
+        <v>52520</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>78893</v>
+        <v>79672</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.08043863279495606</v>
+        <v>0.08043863279495607</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06502198667480615</v>
+        <v>0.06465972346490573</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09712846762565197</v>
+        <v>0.09808661195727318</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>142</v>
@@ -1501,19 +1501,19 @@
         <v>115668</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>97910</v>
+        <v>97368</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>135979</v>
+        <v>139196</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07160617801123255</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06061281206461749</v>
+        <v>0.06027733239305042</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08418021747212492</v>
+        <v>0.0861719240755271</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>45955</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>35048</v>
+        <v>33443</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>61535</v>
+        <v>62009</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.05722380136831411</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.043641800819771</v>
+        <v>0.04164338812679419</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07662485214333567</v>
+        <v>0.0772147593501603</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>120</v>
@@ -1551,19 +1551,19 @@
         <v>87162</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>71889</v>
+        <v>72341</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>104154</v>
+        <v>103758</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1073082666535868</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.08850486009336797</v>
+        <v>0.08906117733465965</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1282270653942035</v>
+        <v>0.1277395550255073</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>166</v>
@@ -1572,19 +1572,19 @@
         <v>133117</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>112905</v>
+        <v>113967</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>152057</v>
+        <v>154874</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.08240843835262397</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.06989561130369369</v>
+        <v>0.07055321747359058</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.09413360094914283</v>
+        <v>0.09587744154211221</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>147141</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>122019</v>
+        <v>124843</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>172076</v>
+        <v>171713</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.183222342985333</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1519403094654892</v>
+        <v>0.1554571550483987</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2142716096052008</v>
+        <v>0.2138192924241014</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>198</v>
@@ -1622,19 +1622,19 @@
         <v>139939</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>122406</v>
+        <v>121230</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>161212</v>
+        <v>158376</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1722841583082585</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1506984003088778</v>
+        <v>0.1492505183712226</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1984741115494471</v>
+        <v>0.1949818777661263</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>327</v>
@@ -1643,19 +1643,19 @@
         <v>287080</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>257435</v>
+        <v>259216</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>318103</v>
+        <v>319599</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1777221502850535</v>
+        <v>0.1777221502850534</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1593694852592613</v>
+        <v>0.1604723479413782</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1969275335052676</v>
+        <v>0.1978535041776639</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>559646</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>529683</v>
+        <v>530392</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>589466</v>
+        <v>587139</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6968811596141832</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6595698051101804</v>
+        <v>0.6604532604505461</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7340133096098422</v>
+        <v>0.7311157750614307</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>638</v>
@@ -1693,19 +1693,19 @@
         <v>519821</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>491735</v>
+        <v>494091</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>542606</v>
+        <v>543245</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6399689422431988</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6053924470054806</v>
+        <v>0.6082919096377866</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6680208101909291</v>
+        <v>0.6688082091628627</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1088</v>
@@ -1714,19 +1714,19 @@
         <v>1079467</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1039247</v>
+        <v>1040706</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1116328</v>
+        <v>1115550</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6682632333510899</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6433641787611102</v>
+        <v>0.6442675728439284</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6910825076451833</v>
+        <v>0.6906011710818941</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>101591</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>84077</v>
+        <v>82443</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>123543</v>
+        <v>121479</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1026105100295288</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08492081180591182</v>
+        <v>0.08327013882844943</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1247831545940019</v>
+        <v>0.1226985615086225</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>201</v>
@@ -1839,19 +1839,19 @@
         <v>134438</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>118185</v>
+        <v>117788</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>154909</v>
+        <v>153811</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1202140577328616</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1056808699141824</v>
+        <v>0.1053256819233807</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1385194707396901</v>
+        <v>0.1375376586336005</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>316</v>
@@ -1860,19 +1860,19 @@
         <v>236028</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>209541</v>
+        <v>211360</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>262432</v>
+        <v>264147</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1119477109094082</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09938497787553816</v>
+        <v>0.1002477243569812</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1244706920232362</v>
+        <v>0.1252844353199364</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>83170</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>67108</v>
+        <v>67193</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>103280</v>
+        <v>103615</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08400446841826473</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0677812911030084</v>
+        <v>0.06786759927162968</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1043167821542108</v>
+        <v>0.1046551164141823</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>200</v>
@@ -1910,19 +1910,19 @@
         <v>130919</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>113651</v>
+        <v>113614</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>150565</v>
+        <v>149475</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1170673036410521</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1016270826914295</v>
+        <v>0.1015937714681778</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1346355418493055</v>
+        <v>0.1336599893697679</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>295</v>
@@ -1931,19 +1931,19 @@
         <v>214088</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>189195</v>
+        <v>189484</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>238751</v>
+        <v>239995</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1015415205702618</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08973472835120208</v>
+        <v>0.08987170738541519</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1132391406533549</v>
+        <v>0.1138288901276372</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>153217</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>132488</v>
+        <v>132007</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>177120</v>
+        <v>176524</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1547546386896866</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.133817919650404</v>
+        <v>0.1333321940792844</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1788982393577407</v>
+        <v>0.1782960977425735</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>318</v>
@@ -1981,19 +1981,19 @@
         <v>203836</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>182381</v>
+        <v>181808</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>224841</v>
+        <v>225429</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.1822702026186228</v>
+        <v>0.1822702026186229</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1630853541836921</v>
+        <v>0.1625723967497188</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.201053007198296</v>
+        <v>0.2015780756725437</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>505</v>
@@ -2002,19 +2002,19 @@
         <v>357053</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>324910</v>
+        <v>326825</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>391733</v>
+        <v>389380</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.1693493301721881</v>
+        <v>0.169349330172188</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1541039339540232</v>
+        <v>0.1550122071713558</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1857982043212583</v>
+        <v>0.1846822242686515</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>652085</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>620492</v>
+        <v>619449</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>682402</v>
+        <v>680893</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6586303828625198</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6267207119804838</v>
+        <v>0.6256670420570992</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6892521162830731</v>
+        <v>0.687727338812146</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>842</v>
@@ -2052,19 +2052,19 @@
         <v>649127</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>615473</v>
+        <v>618024</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>675308</v>
+        <v>677674</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5804484360074634</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5503555460270015</v>
+        <v>0.5526364584094238</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6038600494799942</v>
+        <v>0.6059757126474349</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1451</v>
@@ -2073,19 +2073,19 @@
         <v>1301211</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1260466</v>
+        <v>1259529</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1343810</v>
+        <v>1341884</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6171614383481421</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5978359960721564</v>
+        <v>0.5973914412225986</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.637365737425325</v>
+        <v>0.6364521951805175</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>292352</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>256050</v>
+        <v>257830</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>328405</v>
+        <v>324399</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08280306606750837</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07252128887678948</v>
+        <v>0.07302546495762412</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09301426404236612</v>
+        <v>0.09187985834880143</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>615</v>
@@ -2198,19 +2198,19 @@
         <v>400453</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>370467</v>
+        <v>370620</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>432396</v>
+        <v>431820</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1072412014473603</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09921093099801832</v>
+        <v>0.09925191368422001</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.115795493189505</v>
+        <v>0.115641259183286</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>937</v>
@@ -2219,19 +2219,19 @@
         <v>692806</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>648351</v>
+        <v>648478</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>741851</v>
+        <v>740806</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.09536431750406522</v>
+        <v>0.09536431750406524</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08924519861844643</v>
+        <v>0.0892627117142159</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1021154252015032</v>
+        <v>0.1019715680959076</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>253081</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>224763</v>
+        <v>220202</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>290828</v>
+        <v>285182</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07168031243063422</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06365982998994218</v>
+        <v>0.06236794343647275</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08237141740192618</v>
+        <v>0.08077231453688985</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>667</v>
@@ -2269,19 +2269,19 @@
         <v>421648</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>387407</v>
+        <v>388343</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>456427</v>
+        <v>452835</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.112917128242905</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1037472927548732</v>
+        <v>0.1039980228248658</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1222309179302206</v>
+        <v>0.1212690734967657</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>940</v>
@@ -2290,19 +2290,19 @@
         <v>674729</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>630715</v>
+        <v>631251</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>719139</v>
+        <v>723886</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.09287611987705546</v>
+        <v>0.09287611987705548</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08681756936292685</v>
+        <v>0.08689136638221429</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0989891428743627</v>
+        <v>0.09964258445198386</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>586479</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>545311</v>
+        <v>543388</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>636538</v>
+        <v>634731</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1661087543934552</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1544486832251382</v>
+        <v>0.1539041646958808</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1802871265730293</v>
+        <v>0.1797752549061356</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1285</v>
@@ -2340,19 +2340,19 @@
         <v>768165</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>727232</v>
+        <v>726308</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>808571</v>
+        <v>808374</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2057141266702742</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1947523906327522</v>
+        <v>0.1945048048982255</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2165349494580392</v>
+        <v>0.2164822775232035</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1938</v>
@@ -2361,19 +2361,19 @@
         <v>1354644</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1296657</v>
+        <v>1291643</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1419172</v>
+        <v>1408035</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1864659965346752</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1784842014099836</v>
+        <v>0.1777939305523721</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1953483328486681</v>
+        <v>0.1938153198679874</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>2398780</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2335265</v>
+        <v>2339323</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2457973</v>
+        <v>2458271</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.6794078671084023</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6614185250456367</v>
+        <v>0.6625679175518112</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6961730754728802</v>
+        <v>0.6962574314696277</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2795</v>
@@ -2411,19 +2411,19 @@
         <v>2143871</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2087783</v>
+        <v>2098293</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2198853</v>
+        <v>2201828</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.5741275436394604</v>
+        <v>0.5741275436394603</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.5591071137620498</v>
+        <v>0.5619218476837535</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.5888518452903638</v>
+        <v>0.5896484173043306</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>4921</v>
@@ -2432,19 +2432,19 @@
         <v>4542651</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>4458849</v>
+        <v>4464855</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>4619743</v>
+        <v>4625853</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.6252935660842041</v>
+        <v>0.6252935660842039</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.6137581766057214</v>
+        <v>0.6145849557046782</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.6359051214955677</v>
+        <v>0.6367461588315723</v>
       </c>
     </row>
     <row r="28">
